--- a/data/trans_orig/P1422-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D1DF58-852B-45EC-A1F0-051F24C4D29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D66FB6-BCCF-4FEE-B2A3-EB61F77967CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9C8C5D64-B5A6-41BE-A1C0-EBDB7C3CE678}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6474680F-B8D1-4729-AEF2-1DC8B853DB5D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="252">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -121,697 +121,679 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
     <t>98,99%</t>
   </si>
   <si>
+    <t>99,22%</t>
+  </si>
+  <si>
     <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28C7877-C96E-4E40-8581-71CED48A397A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8852C-F8E0-42C0-877E-85E095319575}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1660,10 +1642,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1678,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1687,13 +1669,13 @@
         <v>7810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1690,13 @@
         <v>674053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>666</v>
@@ -1741,10 +1723,10 @@
         <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,7 +1782,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1812,13 +1794,13 @@
         <v>4029</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1827,13 +1809,13 @@
         <v>6115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1842,13 +1824,13 @@
         <v>10144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1845,13 @@
         <v>610588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -1878,13 +1860,13 @@
         <v>608149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>1076</v>
@@ -1893,13 +1875,13 @@
         <v>1218736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,7 +1937,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1967,13 +1949,13 @@
         <v>2006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1982,13 +1964,13 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2000,10 +1982,10 @@
         <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2000,7 @@
         <v>427423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>69</v>
@@ -2295,10 +2277,10 @@
         <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2310,10 +2292,10 @@
         <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2310,13 @@
         <v>3393157</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>3272</v>
@@ -2343,28 +2325,28 @@
         <v>3529719</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
         <v>6451</v>
       </c>
       <c r="N23" s="7">
-        <v>6922876</v>
+        <v>6922877</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2388,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2420,7 +2402,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F9A483-289A-4013-BECF-C6625DE3180F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B445B-0F9C-42E5-8793-50B104ED6C58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,7 +2441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2572,7 +2554,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2587,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2602,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2602,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2635,7 +2617,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2650,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2721,13 +2703,13 @@
         <v>973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2742,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2757,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,10 +2754,10 @@
         <v>589523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2790,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2805,7 +2787,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2876,13 +2858,13 @@
         <v>1846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2897,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2906,13 +2888,13 @@
         <v>1846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +2909,10 @@
         <v>667251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2957,10 +2939,10 @@
         <v>1328637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3019,7 +3001,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3031,13 +3013,13 @@
         <v>4942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3046,13 +3028,13 @@
         <v>2082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3061,13 +3043,13 @@
         <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3064,13 @@
         <v>641106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3097,10 +3079,10 @@
         <v>646995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3109,16 +3091,16 @@
         <v>1177</v>
       </c>
       <c r="N14" s="7">
-        <v>1288101</v>
+        <v>1288102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3142,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3174,7 +3156,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3186,13 +3168,13 @@
         <v>2284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3201,13 +3183,13 @@
         <v>2098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3219,10 +3201,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,10 +3219,10 @@
         <v>475634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3252,10 +3234,10 @@
         <v>494751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3270,10 +3252,10 @@
         <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3323,13 @@
         <v>11523</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3356,13 +3338,13 @@
         <v>16620</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3371,13 +3353,13 @@
         <v>28143</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3374,13 @@
         <v>579805</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>642</v>
@@ -3407,13 +3389,13 @@
         <v>761311</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
         <v>1257</v>
@@ -3422,13 +3404,13 @@
         <v>1341116</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3478,13 @@
         <v>21568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3511,13 +3493,13 @@
         <v>20800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -3526,13 +3508,13 @@
         <v>42368</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3529,13 @@
         <v>3372782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>3321</v>
@@ -3562,13 +3544,13 @@
         <v>3523742</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>6530</v>
@@ -3577,13 +3559,13 @@
         <v>6896524</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,7 +3621,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3661,7 +3643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D71D4F-D876-4DDB-BE6B-C235DFC8FB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A44EF-4C89-4AFE-8E10-76086A057C23}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3791,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3800,7 +3782,7 @@
         <v>1455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -3821,7 +3803,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,7 +3821,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3851,10 +3833,10 @@
         <v>353502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3866,10 +3848,10 @@
         <v>731181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3940,13 +3922,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3955,13 +3937,13 @@
         <v>967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3970,13 +3952,13 @@
         <v>2348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,10 +3973,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4006,10 +3988,10 @@
         <v>497610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4110,13 +4092,13 @@
         <v>1582</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4125,13 +4107,13 @@
         <v>2445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4131,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4161,13 +4143,13 @@
         <v>581176</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
@@ -4179,10 +4161,10 @@
         <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,7 +4220,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4250,13 +4232,13 @@
         <v>6382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4265,13 +4247,13 @@
         <v>3819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4280,13 +4262,13 @@
         <v>10201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4283,13 @@
         <v>717608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>1133</v>
@@ -4316,13 +4298,13 @@
         <v>743035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1792</v>
@@ -4331,13 +4313,13 @@
         <v>1460643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,7 +4375,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4408,10 +4390,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4420,13 +4402,13 @@
         <v>9428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4435,13 +4417,13 @@
         <v>24218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,10 +4441,10 @@
         <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -4471,13 +4453,13 @@
         <v>583284</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>1628</v>
@@ -4486,13 +4468,13 @@
         <v>1167580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4542,13 @@
         <v>21803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4575,13 +4557,13 @@
         <v>21238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -4590,13 +4572,13 @@
         <v>43041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4593,13 @@
         <v>673293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H20" s="7">
         <v>1667</v>
@@ -4626,13 +4608,13 @@
         <v>1005240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>2658</v>
@@ -4641,13 +4623,13 @@
         <v>1678532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4697,13 @@
         <v>45219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4730,13 +4712,13 @@
         <v>38490</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -4745,13 +4727,13 @@
         <v>83709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4748,13 @@
         <v>3336279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>5290</v>
@@ -4781,13 +4763,13 @@
         <v>3763845</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>8603</v>
@@ -4796,13 +4778,13 @@
         <v>7100125</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,7 +4840,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D66FB6-BCCF-4FEE-B2A3-EB61F77967CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D303FE-869B-44E6-A10E-326A77E10892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6474680F-B8D1-4729-AEF2-1DC8B853DB5D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3AD6750-6FAF-4AF5-AF25-143B97475E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -112,7 +112,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -121,13 +121,10 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,25%</t>
+    <t>99,24%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -136,16 +133,16 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
     <t>35/44</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -154,646 +151,649 @@
     <t>0,56%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A8852C-F8E0-42C0-877E-85E095319575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0957060B-A18C-4787-BCB2-7DC274B85DED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1520,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,10 +1535,10 @@
         <v>686057</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -1553,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -1565,10 +1565,10 @@
         <v>1296312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1639,13 +1639,13 @@
         <v>7810</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1669,13 +1669,13 @@
         <v>7810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,13 +1690,13 @@
         <v>674053</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="7">
         <v>666</v>
@@ -1797,10 +1797,10 @@
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1809,10 +1809,10 @@
         <v>6115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>51</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -1860,13 +1860,13 @@
         <v>608149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>1076</v>
@@ -1949,13 +1949,13 @@
         <v>2006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1964,7 +1964,7 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -2000,10 +2000,10 @@
         <v>427423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2015,7 +2015,7 @@
         <v>446856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>71</v>
@@ -2030,7 +2030,7 @@
         <v>874279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>72</v>
@@ -2262,10 +2262,10 @@
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2274,13 +2274,13 @@
         <v>25379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2289,10 +2289,10 @@
         <v>59001</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>99</v>
@@ -2316,7 +2316,7 @@
         <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7">
         <v>3272</v>
@@ -2325,10 +2325,10 @@
         <v>3529719</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>20</v>
@@ -2337,16 +2337,16 @@
         <v>6451</v>
       </c>
       <c r="N23" s="7">
-        <v>6922877</v>
+        <v>6922876</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,7 +2388,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2424,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B445B-0F9C-42E5-8793-50B104ED6C58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E6264C-B4AD-497D-8063-4A382D8C2F5F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2569,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2739,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
         <v>589523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>60</v>
@@ -2772,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2784,10 +2784,10 @@
         <v>1153067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2858,13 @@
         <v>1846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2888,13 +2888,13 @@
         <v>1846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,10 +2909,10 @@
         <v>667251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2939,10 +2939,10 @@
         <v>1328637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3013,13 +3013,13 @@
         <v>4942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3028,13 +3028,13 @@
         <v>2082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3043,13 +3043,13 @@
         <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,10 +3064,10 @@
         <v>641106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>42</v>
@@ -3079,10 +3079,10 @@
         <v>646995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3091,13 +3091,13 @@
         <v>1177</v>
       </c>
       <c r="N14" s="7">
-        <v>1288102</v>
+        <v>1288101</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>136</v>
@@ -3142,7 +3142,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3174,7 +3174,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3183,13 +3183,13 @@
         <v>2098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3201,10 +3201,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
         <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3234,10 +3234,10 @@
         <v>494751</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3252,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>146</v>
@@ -3341,10 +3341,10 @@
         <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3353,13 +3353,13 @@
         <v>28143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3374,13 @@
         <v>579805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" s="7">
         <v>642</v>
@@ -3389,13 +3389,13 @@
         <v>761311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>1257</v>
@@ -3404,13 +3404,13 @@
         <v>1341116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>21568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3493,13 +3493,13 @@
         <v>20800</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -3508,13 +3508,13 @@
         <v>42368</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3529,13 @@
         <v>3372782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>3321</v>
@@ -3544,13 +3544,13 @@
         <v>3523742</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>6530</v>
@@ -3559,13 +3559,13 @@
         <v>6896524</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776A44EF-4C89-4AFE-8E10-76086A057C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2374C568-27CC-4FF0-840E-538E6C09EA94}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3773,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3782,13 +3782,13 @@
         <v>1455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3797,13 +3797,13 @@
         <v>1455</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3821,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3833,10 +3833,10 @@
         <v>353502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3848,10 +3848,10 @@
         <v>731181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3922,7 +3922,7 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -3973,7 +3973,7 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>188</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4092,13 +4092,13 @@
         <v>1582</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4107,13 +4107,13 @@
         <v>2445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,10 +4128,10 @@
         <v>556389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4143,13 +4143,13 @@
         <v>581176</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
@@ -4158,13 +4158,13 @@
         <v>1137565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4232,13 @@
         <v>6382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4247,13 +4247,13 @@
         <v>3819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4262,13 +4262,13 @@
         <v>10201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4283,13 @@
         <v>717608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>1133</v>
@@ -4298,13 +4298,13 @@
         <v>743035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1792</v>
@@ -4313,13 +4313,13 @@
         <v>1460643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,10 +4390,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4402,13 +4402,13 @@
         <v>9428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4417,10 +4417,10 @@
         <v>24218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>216</v>
@@ -4468,13 +4468,13 @@
         <v>1167580</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4542,13 @@
         <v>21803</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4557,13 +4557,13 @@
         <v>21238</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -4572,13 +4572,13 @@
         <v>43041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4593,13 @@
         <v>673293</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H20" s="7">
         <v>1667</v>
@@ -4608,13 +4608,13 @@
         <v>1005240</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M20" s="7">
         <v>2658</v>
@@ -4623,13 +4623,13 @@
         <v>1678532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4697,13 @@
         <v>45219</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4712,13 +4712,13 @@
         <v>38490</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -4727,13 +4727,13 @@
         <v>83709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>95</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4748,13 @@
         <v>3336279</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>5290</v>
@@ -4763,13 +4763,13 @@
         <v>3763845</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>8603</v>
@@ -4778,13 +4778,13 @@
         <v>7100125</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1422-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D303FE-869B-44E6-A10E-326A77E10892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA8A179-A1C3-496A-A17D-30B1B4083480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3AD6750-6FAF-4AF5-AF25-143B97475E0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D73C5ACE-31D7-4D2F-B4DA-4EB4A83412C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="258">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -112,688 +112,706 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>99,17%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,61%</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0957060B-A18C-4787-BCB2-7DC274B85DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BD0A0F-E970-4548-A68F-42350DC67CF8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1520,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,10 +1553,10 @@
         <v>686057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -1553,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -1565,10 +1583,10 @@
         <v>1296312</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1627,7 +1645,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1639,13 +1657,13 @@
         <v>7810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1660,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1669,13 +1687,13 @@
         <v>7810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,10 +1741,10 @@
         <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,7 +1800,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1794,13 +1812,13 @@
         <v>4029</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1809,13 +1827,13 @@
         <v>6115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1824,13 +1842,13 @@
         <v>10144</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,13 +1863,13 @@
         <v>610588</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -1860,13 +1878,13 @@
         <v>608149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>1076</v>
@@ -1875,13 +1893,13 @@
         <v>1218736</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,7 +1955,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1949,13 +1967,13 @@
         <v>2006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1964,13 +1982,13 @@
         <v>944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1982,10 +2000,10 @@
         <v>25</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,10 +2018,10 @@
         <v>427423</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2015,7 +2033,7 @@
         <v>446856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>71</v>
@@ -2030,7 +2048,7 @@
         <v>874279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>72</v>
@@ -2262,10 +2280,10 @@
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -2274,13 +2292,13 @@
         <v>25379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -2289,13 +2307,13 @@
         <v>59001</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2328,13 @@
         <v>3393157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>3272</v>
@@ -2325,13 +2343,13 @@
         <v>3529719</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>6451</v>
@@ -2340,13 +2358,13 @@
         <v>6922876</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,7 +2420,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2424,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E6264C-B4AD-497D-8063-4A382D8C2F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460AEB3-CF62-4DD5-9DA1-015AE8EEA80B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2441,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2554,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2569,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2584,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2620,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2617,7 +2635,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2632,7 +2650,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2703,13 +2721,13 @@
         <v>973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2724,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2739,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,10 +2772,10 @@
         <v>589523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2772,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2784,10 +2802,10 @@
         <v>1153067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2846,7 +2864,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2858,13 +2876,13 @@
         <v>1846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2879,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2888,13 +2906,13 @@
         <v>1846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,10 +2927,10 @@
         <v>667251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3001,7 +3019,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3013,13 +3031,13 @@
         <v>4942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3028,13 +3046,13 @@
         <v>2082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3043,13 +3061,13 @@
         <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3082,13 @@
         <v>641106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3079,10 +3097,10 @@
         <v>646995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3094,13 +3112,13 @@
         <v>1288101</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3174,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3168,13 +3186,13 @@
         <v>2284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3183,13 +3201,13 @@
         <v>2098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3201,10 +3219,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,10 +3237,10 @@
         <v>475634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3234,10 +3252,10 @@
         <v>494751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3252,10 +3270,10 @@
         <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3341,13 @@
         <v>11523</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3338,13 +3356,13 @@
         <v>16620</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3353,13 +3371,13 @@
         <v>28143</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3392,13 @@
         <v>579805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>642</v>
@@ -3478,13 +3496,13 @@
         <v>21568</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3493,10 +3511,10 @@
         <v>20800</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>169</v>
@@ -3511,10 +3529,10 @@
         <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3547,13 @@
         <v>3372782</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>3321</v>
@@ -3544,13 +3562,13 @@
         <v>3523742</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M23" s="7">
         <v>6530</v>
@@ -3562,10 +3580,10 @@
         <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3639,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3643,7 +3661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2374C568-27CC-4FF0-840E-538E6C09EA94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B30F5-A498-4B84-8440-2BA463A0E6CF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3773,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3782,13 +3800,13 @@
         <v>1455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3797,13 +3815,13 @@
         <v>1455</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3833,10 +3851,10 @@
         <v>353502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3848,10 +3866,10 @@
         <v>731181</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3922,13 +3940,13 @@
         <v>1381</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3937,13 +3955,13 @@
         <v>967</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3952,13 +3970,13 @@
         <v>2348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,10 +3991,10 @@
         <v>427015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3988,10 +4006,10 @@
         <v>497610</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4065,7 +4083,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4107,13 +4125,13 @@
         <v>2445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4146,7 @@
         <v>556389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>197</v>
@@ -4158,10 +4176,10 @@
         <v>1137565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>201</v>
@@ -4220,7 +4238,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4232,13 +4250,13 @@
         <v>6382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -4247,13 +4265,13 @@
         <v>3819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4262,13 +4280,13 @@
         <v>10201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4301,13 @@
         <v>717608</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="H14" s="7">
         <v>1133</v>
@@ -4298,13 +4316,13 @@
         <v>743035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1792</v>
@@ -4313,13 +4331,13 @@
         <v>1460643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,7 +4393,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4390,10 +4408,10 @@
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4402,13 +4420,13 @@
         <v>9428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4417,13 +4435,13 @@
         <v>24218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,10 +4459,10 @@
         <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
@@ -4453,13 +4471,13 @@
         <v>583284</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>1628</v>
@@ -4468,13 +4486,13 @@
         <v>1167580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4560,13 @@
         <v>21803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -4557,13 +4575,13 @@
         <v>21238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -4572,13 +4590,13 @@
         <v>43041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4611,13 @@
         <v>673293</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>1667</v>
@@ -4608,13 +4626,13 @@
         <v>1005240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>2658</v>
@@ -4623,13 +4641,13 @@
         <v>1678532</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4715,13 @@
         <v>45219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4712,13 +4730,13 @@
         <v>38490</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -4727,13 +4745,13 @@
         <v>83709</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4766,13 @@
         <v>3336279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>5290</v>
@@ -4763,13 +4781,13 @@
         <v>3763845</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>8603</v>
@@ -4778,13 +4796,13 @@
         <v>7100125</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,7 +4858,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1422-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA8A179-A1C3-496A-A17D-30B1B4083480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1990DA56-D328-483C-B79A-B7A3FB1DAFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D73C5ACE-31D7-4D2F-B4DA-4EB4A83412C5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C1785B90-379B-4E84-A4A1-16D99A5611CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="285">
   <si>
     <t>Población con diagnóstico de accidente cerebrovascular en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -139,7 +139,7 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -172,7 +172,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -223,7 +223,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -262,556 +262,637 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de accidente cerebrovascular en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1304,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BD0A0F-E970-4548-A68F-42350DC67CF8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46F5308-0F9A-4E23-9483-6B86B72B02B7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2116,10 +2197,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>18748</v>
+        <v>5881</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>75</v>
@@ -2131,10 +2212,10 @@
         <v>77</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>18320</v>
+        <v>6167</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>78</v>
@@ -2146,10 +2227,10 @@
         <v>80</v>
       </c>
       <c r="M19" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>37068</v>
+        <v>12048</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>81</v>
@@ -2167,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="D20" s="7">
-        <v>540889</v>
+        <v>303905</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -2182,10 +2263,10 @@
         <v>86</v>
       </c>
       <c r="H20" s="7">
-        <v>677</v>
+        <v>338</v>
       </c>
       <c r="I20" s="7">
-        <v>724655</v>
+        <v>347829</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>87</v>
@@ -2197,10 +2278,10 @@
         <v>89</v>
       </c>
       <c r="M20" s="7">
-        <v>1165</v>
+        <v>614</v>
       </c>
       <c r="N20" s="7">
-        <v>1265544</v>
+        <v>651734</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>90</v>
@@ -2218,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2233,10 +2314,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2248,10 +2329,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2265,55 +2346,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>33622</v>
+        <v>12867</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>25379</v>
+        <v>12153</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>59001</v>
+        <v>25019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,49 +2403,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3179</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3393157</v>
+        <v>236984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
-        <v>3272</v>
+        <v>339</v>
       </c>
       <c r="I23" s="7">
-        <v>3529719</v>
+        <v>376826</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>6451</v>
+        <v>551</v>
       </c>
       <c r="N23" s="7">
-        <v>6922876</v>
+        <v>613811</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,63 +2454,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>33622</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7">
+        <v>24</v>
+      </c>
+      <c r="I25" s="7">
+        <v>25379</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="7">
+        <v>54</v>
+      </c>
+      <c r="N25" s="7">
+        <v>59001</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3393157</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3272</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3529719</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6451</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6922876</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>109</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2442,8 +2679,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460AEB3-CF62-4DD5-9DA1-015AE8EEA80B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E200EDD-47B6-45BE-9B67-710B14934D22}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2459,7 +2696,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2572,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2602,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2650,7 +2887,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2721,7 +2958,7 @@
         <v>973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -2742,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2757,7 +2994,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,7 +3009,7 @@
         <v>589523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>58</v>
@@ -2790,7 +3027,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2805,7 +3042,7 @@
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2876,13 +3113,13 @@
         <v>1846</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2906,13 +3143,13 @@
         <v>1846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +3164,10 @@
         <v>667251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2957,10 +3194,10 @@
         <v>1328637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3031,13 +3268,13 @@
         <v>4942</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3052,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3061,13 +3298,13 @@
         <v>7024</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3319,13 @@
         <v>641106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>600</v>
@@ -3100,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3112,13 +3349,13 @@
         <v>1288101</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3423,13 @@
         <v>2284</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3201,13 +3438,13 @@
         <v>2098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3219,10 +3456,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,10 +3474,10 @@
         <v>475634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3252,10 +3489,10 @@
         <v>494751</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3270,10 +3507,10 @@
         <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,49 +3572,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6619</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7079</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="7">
         <v>12</v>
       </c>
-      <c r="D19" s="7">
-        <v>11523</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>16620</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
       <c r="N19" s="7">
-        <v>28143</v>
+        <v>13698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,49 +3623,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>615</v>
+        <v>319</v>
       </c>
       <c r="D20" s="7">
-        <v>579805</v>
+        <v>327711</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
-        <v>642</v>
+        <v>348</v>
       </c>
       <c r="I20" s="7">
-        <v>761311</v>
+        <v>370683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
-        <v>1257</v>
+        <v>667</v>
       </c>
       <c r="N20" s="7">
-        <v>1341116</v>
+        <v>698394</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,10 +3674,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3452,10 +3689,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3467,10 +3704,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3484,55 +3721,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>21568</v>
+        <v>4905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H22" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>20800</v>
+        <v>9541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>42368</v>
+        <v>14445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,49 +3778,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>3372782</v>
+        <v>252093</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H23" s="7">
-        <v>3321</v>
+        <v>294</v>
       </c>
       <c r="I23" s="7">
-        <v>3523742</v>
+        <v>390628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
-        <v>6530</v>
+        <v>590</v>
       </c>
       <c r="N23" s="7">
-        <v>6896524</v>
+        <v>642722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,63 +3829,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>21568</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="7">
+        <v>17</v>
+      </c>
+      <c r="I25" s="7">
+        <v>20800</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="7">
+        <v>39</v>
+      </c>
+      <c r="N25" s="7">
+        <v>42368</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3372782</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3321</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3523742</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6530</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6896524</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>109</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3661,8 +4054,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B30F5-A498-4B84-8440-2BA463A0E6CF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3820B-B60B-404D-9B76-1827EA505651}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3678,7 +4071,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3791,37 +4184,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1455</v>
+        <v>1176</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1455</v>
+        <v>1176</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +4226,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3848,13 +4241,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>353502</v>
+        <v>312024</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3863,13 +4256,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>731181</v>
+        <v>712011</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3884,7 +4277,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3899,7 +4292,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3914,7 +4307,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3937,46 +4330,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1381</v>
+        <v>1268</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>967</v>
+        <v>914</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2348</v>
+        <v>2183</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4381,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>427015</v>
+        <v>422279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4003,13 +4396,13 @@
         <v>459</v>
       </c>
       <c r="I8" s="7">
-        <v>497610</v>
+        <v>510590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -4018,13 +4411,13 @@
         <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>924625</v>
+        <v>932868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -4039,7 +4432,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4054,7 +4447,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4069,7 +4462,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4092,46 +4485,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1582</v>
+        <v>1486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2445</v>
+        <v>2331</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4536,13 @@
         <v>545</v>
       </c>
       <c r="D11" s="7">
-        <v>556389</v>
+        <v>535493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4158,31 +4551,31 @@
         <v>842</v>
       </c>
       <c r="I11" s="7">
-        <v>581176</v>
+        <v>540313</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
       </c>
       <c r="N11" s="7">
-        <v>1137565</v>
+        <v>1075806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4587,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4209,7 +4602,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4224,7 +4617,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4247,46 +4640,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>6382</v>
+        <v>5610</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>3819</v>
+        <v>3547</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>10201</v>
+        <v>9156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,46 +4691,46 @@
         <v>659</v>
       </c>
       <c r="D14" s="7">
-        <v>717608</v>
+        <v>882176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>1133</v>
       </c>
       <c r="I14" s="7">
-        <v>743035</v>
+        <v>708951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>1792</v>
       </c>
       <c r="N14" s="7">
-        <v>1460643</v>
+        <v>1591129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4742,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4364,7 +4757,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4379,7 +4772,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4402,46 +4795,46 @@
         <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>14789</v>
+        <v>13627</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>9428</v>
+        <v>8687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>24218</v>
+        <v>22314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,46 +4846,46 @@
         <v>645</v>
       </c>
       <c r="D17" s="7">
-        <v>584297</v>
+        <v>546610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>983</v>
       </c>
       <c r="I17" s="7">
-        <v>583284</v>
+        <v>535410</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>1628</v>
       </c>
       <c r="N17" s="7">
-        <v>1167580</v>
+        <v>1082019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,7 +4897,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4519,7 +4912,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592712</v>
+        <v>544097</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4534,7 +4927,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191798</v>
+        <v>1104333</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4554,49 +4947,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>21803</v>
+        <v>6710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>21238</v>
+        <v>7327</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>43041</v>
+        <v>14038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,49 +4998,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>991</v>
+        <v>556</v>
       </c>
       <c r="D20" s="7">
-        <v>673293</v>
+        <v>358988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>1667</v>
+        <v>812</v>
       </c>
       <c r="I20" s="7">
-        <v>1005240</v>
+        <v>601041</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
-        <v>2658</v>
+        <v>1368</v>
       </c>
       <c r="N20" s="7">
-        <v>1678532</v>
+        <v>960027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,10 +5049,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>695096</v>
+        <v>365698</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4671,10 +5064,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026478</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4686,10 +5079,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721573</v>
+        <v>974065</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4703,55 +5096,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>45219</v>
+        <v>13545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I22" s="7">
-        <v>38490</v>
+        <v>11659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>83709</v>
+        <v>25205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,49 +5153,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3313</v>
+        <v>435</v>
       </c>
       <c r="D23" s="7">
-        <v>3336279</v>
+        <v>269214</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
-        <v>5290</v>
+        <v>855</v>
       </c>
       <c r="I23" s="7">
-        <v>3763845</v>
+        <v>414013</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
-        <v>8603</v>
+        <v>1290</v>
       </c>
       <c r="N23" s="7">
-        <v>7100125</v>
+        <v>683226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,63 +5204,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425672</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708431</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7">
+        <v>41606</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H25" s="7">
+        <v>67</v>
+      </c>
+      <c r="I25" s="7">
+        <v>34797</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M25" s="7">
+        <v>126</v>
+      </c>
+      <c r="N25" s="7">
+        <v>76403</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3313</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3414746</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5290</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3622340</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8603</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7037087</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3372</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381498</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456352</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802335</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657137</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8729</v>
       </c>
-      <c r="N24" s="7">
-        <v>7183834</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>109</v>
+      <c r="N27" s="7">
+        <v>7113490</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
